--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_15_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_15_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1008987.116144954</v>
+        <v>1004975.313412858</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29001646.18518387</v>
+        <v>29001646.18518385</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6432656.960140341</v>
+        <v>6432656.96014034</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5028997.216475387</v>
+        <v>5028997.216475386</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>54.10621747306003</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>395.8511035988558</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1530,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>129.2743780276293</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>82.96875648510182</v>
       </c>
       <c r="G13" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>134.4334047779237</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>152.8999186087154</v>
@@ -1587,7 +1587,7 @@
         <v>277.3339849899809</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>131.4981508692083</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>80.24768495457225</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>58.04236988161366</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U14" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>68.75265223553507</v>
       </c>
       <c r="F16" t="n">
-        <v>120.6266007992421</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.7030512222169</v>
@@ -1830,7 +1830,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>395.9670035833263</v>
+        <v>298.4411434512842</v>
       </c>
       <c r="G17" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.04236988161367</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T18" t="n">
         <v>136.1757056744559</v>
@@ -2004,7 +2004,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>125.3420226332282</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>163.7030512222169</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.489944470648581</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S19" t="n">
         <v>152.8999186087154</v>
@@ -2058,19 +2058,19 @@
         <v>237.097464026797</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3339849899809</v>
+        <v>185.4968209315809</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>105.4992020059865</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>272.5185331207043</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T21" t="n">
         <v>136.1757056744559</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>79.58671457673087</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>15.75775879579395</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U22" t="n">
         <v>277.3339849899809</v>
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>55.06211158266933</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>398.3085625684984</v>
+        <v>147.1207229859127</v>
       </c>
       <c r="H23" t="n">
         <v>274.5392124624013</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.0177446442483</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T24" t="n">
         <v>136.1757056744559</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.489944470648581</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S25" t="n">
-        <v>152.8999186087152</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T25" t="n">
         <v>237.097464026797</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>144.9430309892454</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
@@ -2569,7 +2569,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H26" t="n">
         <v>274.5392124624013</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>138.2747061710976</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T27" t="n">
         <v>136.1757056744559</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.489944470648581</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S28" t="n">
         <v>152.8999186087154</v>
@@ -2794,22 +2794,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>401.9539989357923</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.04236988161367</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T29" t="n">
-        <v>210.0177446442483</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U29" t="n">
         <v>255.612391572116</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>126.8180931695683</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T30" t="n">
         <v>136.1757056744559</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.489944470648581</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S31" t="n">
         <v>152.8999186087154</v>
@@ -3031,22 +3031,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>202.7961739892505</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T32" t="n">
-        <v>210.0177446442483</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>147.9143068174771</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T33" t="n">
         <v>136.1757056744559</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.489944470648581</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S34" t="n">
         <v>152.8999186087154</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>228.6063303545347</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
@@ -3325,16 +3325,16 @@
         <v>255.612391572116</v>
       </c>
       <c r="V35" t="n">
-        <v>158.9290615221427</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T36" t="n">
         <v>136.1757056744559</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>73.27064391402179</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -3441,7 +3441,7 @@
         <v>163.7030512222169</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I37" t="n">
         <v>71.96559361603954</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.489944470648581</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>142.1607249770678</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>37.61242580542577</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>153.6821330594725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T39" t="n">
         <v>136.1757056744559</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
@@ -3681,7 +3681,7 @@
         <v>134.4334047779237</v>
       </c>
       <c r="I40" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.489944470648581</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U40" t="n">
         <v>277.3339849899809</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>271.2845697997258</v>
+        <v>163.0774422837311</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>83.84937681520304</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>351.0788748658059</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>60.76258397304348</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T42" t="n">
         <v>136.1757056744559</v>
@@ -3900,7 +3900,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.489944470648588</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>152.8999186087154</v>
@@ -3954,19 +3954,19 @@
         <v>237.097464026797</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3339849899809</v>
+        <v>28.06777762161154</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>138.5760262780099</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>156.5892029160299</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U44" t="n">
-        <v>70.3820866636792</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>60.76258397304348</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T45" t="n">
         <v>136.1757056744559</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>88.37158356402655</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>105.0084941463123</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -4152,10 +4152,10 @@
         <v>163.7030512222169</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.489944470648588</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S46" t="n">
         <v>152.8999186087154</v>
       </c>
       <c r="T46" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>277.3339849899809</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>800.6974388909232</v>
+        <v>1717.922550502994</v>
       </c>
       <c r="C11" t="n">
-        <v>746.0446939686403</v>
+        <v>1291.021820516294</v>
       </c>
       <c r="D11" t="n">
-        <v>746.0446939686403</v>
+        <v>867.7291997012942</v>
       </c>
       <c r="E11" t="n">
-        <v>320.0677541164978</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="F11" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G11" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H11" t="n">
         <v>42.75541829589048</v>
       </c>
       <c r="I11" t="n">
-        <v>84.39494262103617</v>
+        <v>84.39494262103653</v>
       </c>
       <c r="J11" t="n">
-        <v>222.2360596072045</v>
+        <v>222.2360596072051</v>
       </c>
       <c r="K11" t="n">
-        <v>437.0691715610002</v>
+        <v>437.0691715610008</v>
       </c>
       <c r="L11" t="n">
-        <v>709.585180084832</v>
+        <v>709.5851800848324</v>
       </c>
       <c r="M11" t="n">
         <v>1017.958031365649</v>
@@ -5068,25 +5068,25 @@
         <v>2137.770914794524</v>
       </c>
       <c r="S11" t="n">
-        <v>2079.14225834845</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="T11" t="n">
-        <v>1867.003122344158</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="U11" t="n">
-        <v>1608.808787422829</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="V11" t="n">
-        <v>1608.808787422829</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="W11" t="n">
-        <v>1212.417437723176</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="X11" t="n">
-        <v>800.6974388909232</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="Y11" t="n">
-        <v>800.6974388909232</v>
+        <v>2137.770914794524</v>
       </c>
     </row>
     <row r="12">
@@ -5120,13 +5120,13 @@
         <v>62.98439029745215</v>
       </c>
       <c r="J12" t="n">
-        <v>142.0237151377162</v>
+        <v>404.4659091426543</v>
       </c>
       <c r="K12" t="n">
-        <v>289.8146695059644</v>
+        <v>552.2568635109025</v>
       </c>
       <c r="L12" t="n">
-        <v>496.0652591283641</v>
+        <v>758.5074531333022</v>
       </c>
       <c r="M12" t="n">
         <v>1002.337654088804</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>713.384258126683</v>
+        <v>664.5710585102714</v>
       </c>
       <c r="C13" t="n">
-        <v>582.8040783007948</v>
+        <v>664.5710585102714</v>
       </c>
       <c r="D13" t="n">
-        <v>582.8040783007948</v>
+        <v>501.2542856370421</v>
       </c>
       <c r="E13" t="n">
-        <v>416.5958724536483</v>
+        <v>335.0460797898957</v>
       </c>
       <c r="F13" t="n">
-        <v>416.5958724536483</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="G13" t="n">
         <v>251.2392550574696</v>
@@ -5202,19 +5202,19 @@
         <v>84.71320548484809</v>
       </c>
       <c r="K13" t="n">
-        <v>413.7637441131362</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L13" t="n">
-        <v>523.2582343051841</v>
+        <v>652.3645187823271</v>
       </c>
       <c r="M13" t="n">
-        <v>1010.998288177279</v>
+        <v>1181.462820193972</v>
       </c>
       <c r="N13" t="n">
-        <v>1523.526466160679</v>
+        <v>1295.958075335492</v>
       </c>
       <c r="O13" t="n">
-        <v>2003.682813232012</v>
+        <v>1690.926608658705</v>
       </c>
       <c r="P13" t="n">
         <v>2088.252358880159</v>
@@ -5223,28 +5223,28 @@
         <v>2137.770914794524</v>
       </c>
       <c r="R13" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S13" t="n">
-        <v>1976.771053098196</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T13" t="n">
-        <v>1737.278665192341</v>
+        <v>1743.834164657643</v>
       </c>
       <c r="U13" t="n">
-        <v>1457.143326818623</v>
+        <v>1463.698826283925</v>
       </c>
       <c r="V13" t="n">
-        <v>1457.143326818623</v>
+        <v>1181.987358891953</v>
       </c>
       <c r="W13" t="n">
-        <v>1182.290922991136</v>
+        <v>907.1349550644663</v>
       </c>
       <c r="X13" t="n">
-        <v>939.7270264369409</v>
+        <v>664.5710585102714</v>
       </c>
       <c r="Y13" t="n">
-        <v>713.384258126683</v>
+        <v>664.5710585102714</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>871.0642395303546</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="C14" t="n">
-        <v>871.0642395303546</v>
+        <v>824.4186425623786</v>
       </c>
       <c r="D14" t="n">
-        <v>871.0642395303546</v>
+        <v>401.1260217473789</v>
       </c>
       <c r="E14" t="n">
-        <v>445.0872996782122</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="F14" t="n">
-        <v>445.0872996782122</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="G14" t="n">
-        <v>42.75541829589046</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H14" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I14" t="n">
-        <v>84.39494262103614</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J14" t="n">
-        <v>222.2360596072045</v>
+        <v>222.2360596072047</v>
       </c>
       <c r="K14" t="n">
-        <v>437.0691715610003</v>
+        <v>437.0691715610005</v>
       </c>
       <c r="L14" t="n">
         <v>709.5851800848322</v>
@@ -5290,40 +5290,40 @@
         <v>1017.958031365649</v>
       </c>
       <c r="N14" t="n">
-        <v>1332.07042163564</v>
+        <v>1332.070421635641</v>
       </c>
       <c r="O14" t="n">
         <v>1626.510864636164</v>
       </c>
       <c r="P14" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q14" t="n">
-        <v>2048.878716272599</v>
+        <v>2048.8787162726</v>
       </c>
       <c r="R14" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S14" t="n">
-        <v>2079.142258348449</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T14" t="n">
-        <v>2079.142258348449</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="U14" t="n">
-        <v>1820.947923427119</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="V14" t="n">
-        <v>1820.947923427119</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="W14" t="n">
-        <v>1820.947923427119</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="X14" t="n">
-        <v>1409.227924594867</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="Y14" t="n">
-        <v>1003.890654549757</v>
+        <v>1251.319372549078</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>598.4330068530408</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C15" t="n">
-        <v>480.9271033705455</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D15" t="n">
         <v>377.0871448858306</v>
@@ -5348,37 +5348,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G15" t="n">
-        <v>85.75954558772926</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H15" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I15" t="n">
-        <v>62.98439029745214</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J15" t="n">
-        <v>404.4659091426543</v>
+        <v>299.0104088577484</v>
       </c>
       <c r="K15" t="n">
-        <v>552.2568635109025</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L15" t="n">
-        <v>758.5074531333022</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M15" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N15" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O15" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P15" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q15" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R15" t="n">
         <v>1815.649874842555</v>
@@ -5399,10 +5399,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X15" t="n">
-        <v>867.0529049198111</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y15" t="n">
-        <v>727.3600162731035</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>710.4134868870981</v>
+        <v>658.0155590449698</v>
       </c>
       <c r="C16" t="n">
-        <v>538.4409237660141</v>
+        <v>486.0429959238858</v>
       </c>
       <c r="D16" t="n">
-        <v>538.4409237660141</v>
+        <v>486.0429959238858</v>
       </c>
       <c r="E16" t="n">
-        <v>538.4409237660141</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="F16" t="n">
         <v>416.5958724536483</v>
       </c>
       <c r="G16" t="n">
-        <v>251.2392550574695</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="H16" t="n">
         <v>115.4479370999708</v>
       </c>
       <c r="I16" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J16" t="n">
-        <v>84.71320548484806</v>
+        <v>84.71320548484809</v>
       </c>
       <c r="K16" t="n">
-        <v>166.4811349991141</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L16" t="n">
-        <v>652.364518782327</v>
+        <v>481.8999867656339</v>
       </c>
       <c r="M16" t="n">
-        <v>1096.27500644585</v>
+        <v>1010.998288177279</v>
       </c>
       <c r="N16" t="n">
-        <v>1210.77026158737</v>
+        <v>1523.526466160679</v>
       </c>
       <c r="O16" t="n">
-        <v>1690.926608658704</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P16" t="n">
-        <v>2088.252358880158</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q16" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R16" t="n">
-        <v>2131.215415329221</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="S16" t="n">
         <v>1976.771053098196</v>
       </c>
       <c r="T16" t="n">
-        <v>1737.27866519234</v>
+        <v>1737.278665192341</v>
       </c>
       <c r="U16" t="n">
-        <v>1457.143326818622</v>
+        <v>1457.143326818623</v>
       </c>
       <c r="V16" t="n">
-        <v>1175.431859426651</v>
+        <v>1175.431859426652</v>
       </c>
       <c r="W16" t="n">
-        <v>900.5794555991638</v>
+        <v>900.5794555991647</v>
       </c>
       <c r="X16" t="n">
-        <v>900.5794555991638</v>
+        <v>658.0155590449698</v>
       </c>
       <c r="Y16" t="n">
-        <v>900.5794555991638</v>
+        <v>658.0155590449698</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1271.030909816543</v>
+        <v>1197.088788590575</v>
       </c>
       <c r="C17" t="n">
-        <v>1271.030909816543</v>
+        <v>770.1880586038756</v>
       </c>
       <c r="D17" t="n">
-        <v>1271.030909816543</v>
+        <v>770.1880586038756</v>
       </c>
       <c r="E17" t="n">
-        <v>845.0539699644004</v>
+        <v>344.2111187517331</v>
       </c>
       <c r="F17" t="n">
-        <v>445.0872996782122</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="G17" t="n">
         <v>42.75541829589046</v>
@@ -5512,16 +5512,16 @@
         <v>42.75541829589046</v>
       </c>
       <c r="I17" t="n">
-        <v>84.39494262103614</v>
+        <v>84.39494262103617</v>
       </c>
       <c r="J17" t="n">
-        <v>222.2360596072045</v>
+        <v>222.2360596072046</v>
       </c>
       <c r="K17" t="n">
-        <v>437.0691715610001</v>
+        <v>437.0691715610004</v>
       </c>
       <c r="L17" t="n">
-        <v>709.5851800848318</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M17" t="n">
         <v>1017.958031365649</v>
@@ -5545,22 +5545,22 @@
         <v>2079.142258348449</v>
       </c>
       <c r="T17" t="n">
-        <v>2079.142258348449</v>
+        <v>1867.003122344157</v>
       </c>
       <c r="U17" t="n">
-        <v>2079.142258348449</v>
+        <v>1608.808787422828</v>
       </c>
       <c r="V17" t="n">
-        <v>2079.142258348449</v>
+        <v>1608.808787422828</v>
       </c>
       <c r="W17" t="n">
-        <v>1682.750908648796</v>
+        <v>1608.808787422828</v>
       </c>
       <c r="X17" t="n">
-        <v>1271.030909816543</v>
+        <v>1197.088788590575</v>
       </c>
       <c r="Y17" t="n">
-        <v>1271.030909816543</v>
+        <v>1197.088788590575</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>42.75541829589046</v>
       </c>
       <c r="I18" t="n">
-        <v>62.98439029745212</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J18" t="n">
-        <v>142.0237151377161</v>
+        <v>299.0104088577481</v>
       </c>
       <c r="K18" t="n">
-        <v>289.8146695059643</v>
+        <v>446.8013632259964</v>
       </c>
       <c r="L18" t="n">
-        <v>496.065259128364</v>
+        <v>653.0519528483962</v>
       </c>
       <c r="M18" t="n">
-        <v>739.8954600838654</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N18" t="n">
-        <v>992.5205257180608</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O18" t="n">
-        <v>1220.01238974092</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P18" t="n">
-        <v>1399.453043391742</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q18" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R18" t="n">
         <v>1815.649874842555</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>742.7019941603903</v>
+        <v>615.9831015948184</v>
       </c>
       <c r="C19" t="n">
-        <v>570.7294310393063</v>
+        <v>615.9831015948184</v>
       </c>
       <c r="D19" t="n">
-        <v>407.412658166077</v>
+        <v>452.6663287215891</v>
       </c>
       <c r="E19" t="n">
-        <v>407.412658166077</v>
+        <v>452.6663287215891</v>
       </c>
       <c r="F19" t="n">
         <v>280.8045544961495</v>
@@ -5673,25 +5673,25 @@
         <v>42.75541829589046</v>
       </c>
       <c r="J19" t="n">
-        <v>84.71320548484806</v>
+        <v>162.6349221330689</v>
       </c>
       <c r="K19" t="n">
-        <v>413.7637441131362</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L19" t="n">
-        <v>808.5948518923213</v>
+        <v>977.5688445445701</v>
       </c>
       <c r="M19" t="n">
-        <v>924.5709105292748</v>
+        <v>1506.667145956214</v>
       </c>
       <c r="N19" t="n">
-        <v>1437.099088512675</v>
+        <v>1901.228790463881</v>
       </c>
       <c r="O19" t="n">
-        <v>1539.553111280805</v>
+        <v>2003.682813232011</v>
       </c>
       <c r="P19" t="n">
-        <v>1936.878861502259</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q19" t="n">
         <v>2137.770914794523</v>
@@ -5706,19 +5706,19 @@
         <v>1737.27866519234</v>
       </c>
       <c r="U19" t="n">
-        <v>1457.143326818622</v>
+        <v>1549.908138998824</v>
       </c>
       <c r="V19" t="n">
-        <v>1175.431859426651</v>
+        <v>1549.908138998824</v>
       </c>
       <c r="W19" t="n">
-        <v>1175.431859426651</v>
+        <v>1275.055735171337</v>
       </c>
       <c r="X19" t="n">
-        <v>932.8679628724559</v>
+        <v>1032.491838617142</v>
       </c>
       <c r="Y19" t="n">
-        <v>932.8679628724559</v>
+        <v>806.1490703068841</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>978.5528801760096</v>
+        <v>720.3585452546812</v>
       </c>
       <c r="C20" t="n">
-        <v>551.6521501893096</v>
+        <v>720.3585452546812</v>
       </c>
       <c r="D20" t="n">
-        <v>551.6521501893096</v>
+        <v>720.3585452546812</v>
       </c>
       <c r="E20" t="n">
-        <v>551.6521501893096</v>
+        <v>720.3585452546812</v>
       </c>
       <c r="F20" t="n">
-        <v>445.0872996782122</v>
+        <v>720.3585452546812</v>
       </c>
       <c r="G20" t="n">
-        <v>42.75541829589046</v>
+        <v>318.0266638723595</v>
       </c>
       <c r="H20" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I20" t="n">
-        <v>84.39494262103614</v>
+        <v>84.39494262103619</v>
       </c>
       <c r="J20" t="n">
-        <v>222.2360596072045</v>
+        <v>222.2360596072047</v>
       </c>
       <c r="K20" t="n">
-        <v>437.0691715610001</v>
+        <v>437.0691715610005</v>
       </c>
       <c r="L20" t="n">
-        <v>709.5851800848317</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M20" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N20" t="n">
-        <v>1332.07042163564</v>
+        <v>1332.070421635641</v>
       </c>
       <c r="O20" t="n">
-        <v>1626.510864636163</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P20" t="n">
-        <v>1872.202557977125</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q20" t="n">
-        <v>2048.878716272599</v>
+        <v>2048.8787162726</v>
       </c>
       <c r="R20" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S20" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="T20" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="U20" t="n">
-        <v>2137.770914794523</v>
+        <v>1879.576579873195</v>
       </c>
       <c r="V20" t="n">
-        <v>1780.281499920772</v>
+        <v>1522.087164999444</v>
       </c>
       <c r="W20" t="n">
-        <v>1383.890150221119</v>
+        <v>1125.695815299791</v>
       </c>
       <c r="X20" t="n">
-        <v>1383.890150221119</v>
+        <v>1125.695815299791</v>
       </c>
       <c r="Y20" t="n">
-        <v>978.5528801760096</v>
+        <v>720.3585452546812</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>598.4330068530408</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C21" t="n">
-        <v>480.9271033705455</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D21" t="n">
         <v>377.0871448858306</v>
@@ -5822,22 +5822,22 @@
         <v>178.739380841672</v>
       </c>
       <c r="G21" t="n">
-        <v>85.75954558772926</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H21" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I21" t="n">
-        <v>62.98439029745212</v>
+        <v>86.44169614186401</v>
       </c>
       <c r="J21" t="n">
-        <v>404.4659091426546</v>
+        <v>404.465909142654</v>
       </c>
       <c r="K21" t="n">
-        <v>552.2568635109028</v>
+        <v>552.2568635109022</v>
       </c>
       <c r="L21" t="n">
-        <v>758.5074531333025</v>
+        <v>758.5074531333021</v>
       </c>
       <c r="M21" t="n">
         <v>1002.337654088804</v>
@@ -5873,10 +5873,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X21" t="n">
-        <v>867.0529049198111</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y21" t="n">
-        <v>727.3600162731035</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>751.7744195523171</v>
+        <v>386.589755642414</v>
       </c>
       <c r="C22" t="n">
-        <v>751.7744195523171</v>
+        <v>214.6171925213301</v>
       </c>
       <c r="D22" t="n">
-        <v>588.4576466790878</v>
+        <v>214.6171925213301</v>
       </c>
       <c r="E22" t="n">
-        <v>588.4576466790878</v>
+        <v>214.6171925213301</v>
       </c>
       <c r="F22" t="n">
-        <v>416.5958724536483</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2392550574695</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H22" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I22" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J22" t="n">
-        <v>84.71320548484806</v>
+        <v>84.71320548484809</v>
       </c>
       <c r="K22" t="n">
-        <v>413.7637441131362</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L22" t="n">
-        <v>899.647127896349</v>
+        <v>275.9756251911622</v>
       </c>
       <c r="M22" t="n">
-        <v>1237.327115102582</v>
+        <v>698.242083603971</v>
       </c>
       <c r="N22" t="n">
-        <v>1749.855293085983</v>
+        <v>1210.770261587371</v>
       </c>
       <c r="O22" t="n">
-        <v>1852.309315854113</v>
+        <v>1690.926608658705</v>
       </c>
       <c r="P22" t="n">
-        <v>1936.878861502259</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q22" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R22" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S22" t="n">
-        <v>2137.770914794523</v>
+        <v>2121.853986717964</v>
       </c>
       <c r="T22" t="n">
-        <v>2137.770914794523</v>
+        <v>1882.361598812109</v>
       </c>
       <c r="U22" t="n">
-        <v>1857.635576420805</v>
+        <v>1602.226260438391</v>
       </c>
       <c r="V22" t="n">
-        <v>1575.924109028834</v>
+        <v>1320.51479304642</v>
       </c>
       <c r="W22" t="n">
-        <v>1301.071705201347</v>
+        <v>1045.662389218933</v>
       </c>
       <c r="X22" t="n">
-        <v>1058.507808647152</v>
+        <v>803.0984926647377</v>
       </c>
       <c r="Y22" t="n">
-        <v>832.1650403368938</v>
+        <v>576.7557243544798</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1220.45738462304</v>
+        <v>1763.991669446473</v>
       </c>
       <c r="C23" t="n">
-        <v>1164.839090095091</v>
+        <v>1337.090939459773</v>
       </c>
       <c r="D23" t="n">
-        <v>1164.839090095091</v>
+        <v>1337.090939459773</v>
       </c>
       <c r="E23" t="n">
-        <v>1164.839090095091</v>
+        <v>911.1139996076305</v>
       </c>
       <c r="F23" t="n">
-        <v>739.714908284491</v>
+        <v>485.9898177970307</v>
       </c>
       <c r="G23" t="n">
         <v>337.3830269021693</v>
@@ -5986,31 +5986,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I23" t="n">
-        <v>101.7102154067076</v>
+        <v>101.7102154067077</v>
       </c>
       <c r="J23" t="n">
-        <v>631.2805511005022</v>
+        <v>464.9022470025291</v>
       </c>
       <c r="K23" t="n">
-        <v>1302.832810844574</v>
+        <v>679.7353589563249</v>
       </c>
       <c r="L23" t="n">
-        <v>1575.348819368406</v>
+        <v>1423.110161090654</v>
       </c>
       <c r="M23" t="n">
-        <v>1883.721670649223</v>
+        <v>1731.483012371471</v>
       </c>
       <c r="N23" t="n">
-        <v>2197.834060919214</v>
+        <v>2045.595402641462</v>
       </c>
       <c r="O23" t="n">
-        <v>2492.274503919738</v>
+        <v>2340.035845641986</v>
       </c>
       <c r="P23" t="n">
-        <v>2737.9661972607</v>
+        <v>2585.727538982948</v>
       </c>
       <c r="Q23" t="n">
-        <v>2914.642355556173</v>
+        <v>2762.403697278422</v>
       </c>
       <c r="R23" t="n">
         <v>3003.534554078097</v>
@@ -6022,19 +6022,19 @@
         <v>2791.395418073806</v>
       </c>
       <c r="U23" t="n">
-        <v>2791.395418073806</v>
+        <v>2533.201083152476</v>
       </c>
       <c r="V23" t="n">
-        <v>2433.906003200055</v>
+        <v>2175.711668278725</v>
       </c>
       <c r="W23" t="n">
-        <v>2037.514653500402</v>
+        <v>2175.711668278725</v>
       </c>
       <c r="X23" t="n">
-        <v>1625.794654668149</v>
+        <v>1763.991669446473</v>
       </c>
       <c r="Y23" t="n">
-        <v>1220.45738462304</v>
+        <v>1763.991669446473</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I24" t="n">
-        <v>80.2996630831236</v>
+        <v>80.29966308312362</v>
       </c>
       <c r="J24" t="n">
-        <v>159.3389879233876</v>
+        <v>159.3389879233877</v>
       </c>
       <c r="K24" t="n">
-        <v>307.1299422916358</v>
+        <v>307.1299422916359</v>
       </c>
       <c r="L24" t="n">
-        <v>513.3805319140355</v>
+        <v>513.3805319140357</v>
       </c>
       <c r="M24" t="n">
-        <v>757.2107328695367</v>
+        <v>757.2107328695372</v>
       </c>
       <c r="N24" t="n">
-        <v>1272.277992508671</v>
+        <v>1009.835798503733</v>
       </c>
       <c r="O24" t="n">
-        <v>1499.76985653153</v>
+        <v>1237.327662526592</v>
       </c>
       <c r="P24" t="n">
-        <v>1679.210510182351</v>
+        <v>1416.768316177413</v>
       </c>
       <c r="Q24" t="n">
         <v>1791.049965673171</v>
@@ -6147,25 +6147,25 @@
         <v>60.07069108156194</v>
       </c>
       <c r="J25" t="n">
-        <v>102.0284782705195</v>
+        <v>179.9501949187404</v>
       </c>
       <c r="K25" t="n">
-        <v>431.0790168988077</v>
+        <v>509.0007335470286</v>
       </c>
       <c r="L25" t="n">
-        <v>883.12068640987</v>
+        <v>994.8841173302415</v>
       </c>
       <c r="M25" t="n">
-        <v>1412.632225509645</v>
+        <v>1524.395656430017</v>
       </c>
       <c r="N25" t="n">
-        <v>1925.160403493045</v>
+        <v>2036.923834413417</v>
       </c>
       <c r="O25" t="n">
-        <v>2405.316750564379</v>
+        <v>2517.08018148475</v>
       </c>
       <c r="P25" t="n">
-        <v>2802.642500785833</v>
+        <v>2914.405931706205</v>
       </c>
       <c r="Q25" t="n">
         <v>3003.534554078097</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2038.677499366611</v>
+        <v>2441.009380748933</v>
       </c>
       <c r="C26" t="n">
-        <v>1611.776769379911</v>
+        <v>2014.108650762233</v>
       </c>
       <c r="D26" t="n">
-        <v>1188.484148564912</v>
+        <v>1590.816029947233</v>
       </c>
       <c r="E26" t="n">
-        <v>762.5072087127692</v>
+        <v>1164.839090095091</v>
       </c>
       <c r="F26" t="n">
-        <v>337.3830269021693</v>
+        <v>739.714908284491</v>
       </c>
       <c r="G26" t="n">
         <v>337.3830269021693</v>
@@ -6223,55 +6223,55 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I26" t="n">
-        <v>101.7102154067076</v>
+        <v>101.7102154067077</v>
       </c>
       <c r="J26" t="n">
         <v>631.2805511005022</v>
       </c>
       <c r="K26" t="n">
-        <v>846.1136630542979</v>
+        <v>846.1136630542981</v>
       </c>
       <c r="L26" t="n">
-        <v>1118.62967157813</v>
+        <v>1575.348819368405</v>
       </c>
       <c r="M26" t="n">
-        <v>1427.002522858947</v>
+        <v>1883.721670649222</v>
       </c>
       <c r="N26" t="n">
-        <v>1741.114913128938</v>
+        <v>2197.834060919214</v>
       </c>
       <c r="O26" t="n">
-        <v>2035.555356129461</v>
+        <v>2492.274503919738</v>
       </c>
       <c r="P26" t="n">
-        <v>2585.727538982949</v>
+        <v>2737.9661972607</v>
       </c>
       <c r="Q26" t="n">
-        <v>2762.403697278422</v>
+        <v>2914.642355556173</v>
       </c>
       <c r="R26" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="S26" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T26" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="U26" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="V26" t="n">
-        <v>3003.534554078097</v>
+        <v>2587.416482758272</v>
       </c>
       <c r="W26" t="n">
-        <v>2863.863133703251</v>
+        <v>2587.416482758272</v>
       </c>
       <c r="X26" t="n">
-        <v>2863.863133703251</v>
+        <v>2587.416482758272</v>
       </c>
       <c r="Y26" t="n">
-        <v>2458.525863658141</v>
+        <v>2587.416482758272</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I27" t="n">
-        <v>80.2996630831236</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J27" t="n">
-        <v>159.3389879233876</v>
+        <v>316.3256816434195</v>
       </c>
       <c r="K27" t="n">
-        <v>307.1299422916358</v>
+        <v>464.1166360116678</v>
       </c>
       <c r="L27" t="n">
-        <v>513.3805319140355</v>
+        <v>670.3672256340676</v>
       </c>
       <c r="M27" t="n">
-        <v>757.2107328695367</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N27" t="n">
-        <v>1009.835798503732</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O27" t="n">
-        <v>1237.327662526591</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P27" t="n">
-        <v>1416.768316177413</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q27" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R27" t="n">
         <v>1832.965147628227</v>
@@ -6363,46 +6363,46 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C28" t="n">
-        <v>935.2978981851352</v>
+        <v>935.2978981851351</v>
       </c>
       <c r="D28" t="n">
-        <v>771.9811253119059</v>
+        <v>771.9811253119058</v>
       </c>
       <c r="E28" t="n">
-        <v>605.7729194647594</v>
+        <v>605.7729194647593</v>
       </c>
       <c r="F28" t="n">
         <v>433.9111452393198</v>
       </c>
       <c r="G28" t="n">
-        <v>268.554527843141</v>
+        <v>268.5545278431407</v>
       </c>
       <c r="H28" t="n">
-        <v>132.7632098856423</v>
+        <v>132.763209885642</v>
       </c>
       <c r="I28" t="n">
         <v>60.07069108156194</v>
       </c>
       <c r="J28" t="n">
-        <v>179.9501949187404</v>
+        <v>102.0284782705196</v>
       </c>
       <c r="K28" t="n">
-        <v>509.0007335470286</v>
+        <v>431.0790168988077</v>
       </c>
       <c r="L28" t="n">
-        <v>994.8841173302415</v>
+        <v>916.9624006820206</v>
       </c>
       <c r="M28" t="n">
-        <v>1524.395656430017</v>
+        <v>1446.473939781796</v>
       </c>
       <c r="N28" t="n">
-        <v>2036.923834413417</v>
+        <v>1959.002117765196</v>
       </c>
       <c r="O28" t="n">
-        <v>2517.08018148475</v>
+        <v>2439.15846483653</v>
       </c>
       <c r="P28" t="n">
-        <v>2914.405931706204</v>
+        <v>2836.484215057984</v>
       </c>
       <c r="Q28" t="n">
         <v>3003.534554078097</v>
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1315.354392087888</v>
+        <v>1592.592578123333</v>
       </c>
       <c r="C29" t="n">
-        <v>1315.354392087888</v>
+        <v>1165.691848136633</v>
       </c>
       <c r="D29" t="n">
-        <v>892.0617712728886</v>
+        <v>1165.691848136633</v>
       </c>
       <c r="E29" t="n">
-        <v>466.0848314207461</v>
+        <v>739.714908284491</v>
       </c>
       <c r="F29" t="n">
-        <v>60.07069108156194</v>
+        <v>739.714908284491</v>
       </c>
       <c r="G29" t="n">
-        <v>60.07069108156194</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="H29" t="n">
         <v>60.07069108156194</v>
       </c>
       <c r="I29" t="n">
-        <v>101.7102154067076</v>
+        <v>101.7102154067077</v>
       </c>
       <c r="J29" t="n">
-        <v>631.2805511005022</v>
+        <v>590.3165900974104</v>
       </c>
       <c r="K29" t="n">
-        <v>846.1136630542979</v>
+        <v>805.1497020512063</v>
       </c>
       <c r="L29" t="n">
-        <v>1118.62967157813</v>
+        <v>1077.665710575038</v>
       </c>
       <c r="M29" t="n">
-        <v>1427.002522858947</v>
+        <v>1386.038561855855</v>
       </c>
       <c r="N29" t="n">
-        <v>1741.114913128938</v>
+        <v>1700.150952125847</v>
       </c>
       <c r="O29" t="n">
-        <v>2035.555356129461</v>
+        <v>1994.591395126371</v>
       </c>
       <c r="P29" t="n">
-        <v>2281.247049470423</v>
+        <v>2737.9661972607</v>
       </c>
       <c r="Q29" t="n">
         <v>2914.642355556173</v>
@@ -6508,7 +6508,7 @@
         <v>1720.691662132998</v>
       </c>
       <c r="Y29" t="n">
-        <v>1315.354392087888</v>
+        <v>1592.592578123333</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I30" t="n">
-        <v>80.2996630831236</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J30" t="n">
-        <v>159.3389879233876</v>
+        <v>316.3256816434195</v>
       </c>
       <c r="K30" t="n">
-        <v>307.1299422916358</v>
+        <v>464.1166360116678</v>
       </c>
       <c r="L30" t="n">
-        <v>513.3805319140355</v>
+        <v>670.3672256340676</v>
       </c>
       <c r="M30" t="n">
-        <v>1019.652926874475</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N30" t="n">
-        <v>1272.277992508671</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O30" t="n">
-        <v>1499.76985653153</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P30" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q30" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R30" t="n">
         <v>1832.965147628227</v>
@@ -6621,22 +6621,22 @@
         <v>60.07069108156194</v>
       </c>
       <c r="J31" t="n">
-        <v>102.0284782705195</v>
+        <v>179.9501949187404</v>
       </c>
       <c r="K31" t="n">
-        <v>431.0790168988077</v>
+        <v>509.0007335470286</v>
       </c>
       <c r="L31" t="n">
-        <v>916.9624006820206</v>
+        <v>994.8841173302415</v>
       </c>
       <c r="M31" t="n">
-        <v>1412.632225509645</v>
+        <v>1524.395656430017</v>
       </c>
       <c r="N31" t="n">
-        <v>1925.160403493045</v>
+        <v>2036.923834413417</v>
       </c>
       <c r="O31" t="n">
-        <v>2405.316750564379</v>
+        <v>2517.08018148475</v>
       </c>
       <c r="P31" t="n">
         <v>2802.642500785833</v>
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1966.209783737166</v>
+        <v>739.714908284491</v>
       </c>
       <c r="C32" t="n">
-        <v>1539.309053750466</v>
+        <v>739.714908284491</v>
       </c>
       <c r="D32" t="n">
-        <v>1116.016432935466</v>
+        <v>739.714908284491</v>
       </c>
       <c r="E32" t="n">
-        <v>690.0394930833239</v>
+        <v>739.714908284491</v>
       </c>
       <c r="F32" t="n">
-        <v>264.9153112727241</v>
+        <v>739.714908284491</v>
       </c>
       <c r="G32" t="n">
-        <v>60.07069108156194</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="H32" t="n">
         <v>60.07069108156194</v>
       </c>
       <c r="I32" t="n">
-        <v>101.7102154067076</v>
+        <v>101.7102154067077</v>
       </c>
       <c r="J32" t="n">
-        <v>239.5513323928759</v>
+        <v>239.551332392876</v>
       </c>
       <c r="K32" t="n">
-        <v>652.9110437734563</v>
+        <v>454.3844443466719</v>
       </c>
       <c r="L32" t="n">
-        <v>925.427052297288</v>
+        <v>726.9004528705038</v>
       </c>
       <c r="M32" t="n">
-        <v>1233.799903578105</v>
+        <v>1035.273304151321</v>
       </c>
       <c r="N32" t="n">
-        <v>1547.912293848096</v>
+        <v>1349.385694421312</v>
       </c>
       <c r="O32" t="n">
-        <v>1842.35273684862</v>
+        <v>1643.826137421836</v>
       </c>
       <c r="P32" t="n">
-        <v>2585.727538982949</v>
+        <v>2093.878631620213</v>
       </c>
       <c r="Q32" t="n">
         <v>2762.403697278422</v>
@@ -6727,25 +6727,25 @@
         <v>3003.534554078097</v>
       </c>
       <c r="S32" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T32" t="n">
-        <v>2791.395418073806</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="U32" t="n">
-        <v>2791.395418073806</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="V32" t="n">
-        <v>2791.395418073806</v>
+        <v>2117.083011832651</v>
       </c>
       <c r="W32" t="n">
-        <v>2791.395418073806</v>
+        <v>1720.691662132998</v>
       </c>
       <c r="X32" t="n">
-        <v>2791.395418073806</v>
+        <v>1308.971663300745</v>
       </c>
       <c r="Y32" t="n">
-        <v>2386.058148028696</v>
+        <v>1159.563272576021</v>
       </c>
     </row>
     <row r="33">
@@ -6776,19 +6776,19 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I33" t="n">
-        <v>80.2996630831236</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J33" t="n">
-        <v>159.3389879233876</v>
+        <v>316.3256816434195</v>
       </c>
       <c r="K33" t="n">
-        <v>307.1299422916358</v>
+        <v>464.1166360116678</v>
       </c>
       <c r="L33" t="n">
-        <v>670.3672256340683</v>
+        <v>670.3672256340676</v>
       </c>
       <c r="M33" t="n">
-        <v>914.1974265895697</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N33" t="n">
         <v>1166.822492223765</v>
@@ -6797,7 +6797,7 @@
         <v>1394.314356246624</v>
       </c>
       <c r="P33" t="n">
-        <v>1573.755009897446</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q33" t="n">
         <v>1685.594465388265</v>
@@ -6867,7 +6867,7 @@
         <v>994.8841173302415</v>
       </c>
       <c r="M34" t="n">
-        <v>1524.395656430017</v>
+        <v>1412.632225509645</v>
       </c>
       <c r="N34" t="n">
         <v>1925.160403493045</v>
@@ -6882,7 +6882,7 @@
         <v>3003.534554078097</v>
       </c>
       <c r="R34" t="n">
-        <v>2996.979054612795</v>
+        <v>2996.979054612796</v>
       </c>
       <c r="S34" t="n">
         <v>2842.53469238177</v>
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>893.8565399586328</v>
+        <v>1125.695815299791</v>
       </c>
       <c r="C35" t="n">
-        <v>893.8565399586328</v>
+        <v>698.795085313091</v>
       </c>
       <c r="D35" t="n">
-        <v>893.8565399586328</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="E35" t="n">
         <v>467.8796001064903</v>
@@ -6934,31 +6934,31 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I35" t="n">
-        <v>84.39494262103617</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J35" t="n">
-        <v>222.2360596072045</v>
+        <v>222.2360596072044</v>
       </c>
       <c r="K35" t="n">
-        <v>437.0691715610002</v>
+        <v>437.0691715610004</v>
       </c>
       <c r="L35" t="n">
-        <v>709.5851800848319</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M35" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N35" t="n">
-        <v>1332.07042163564</v>
+        <v>1332.070421635641</v>
       </c>
       <c r="O35" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P35" t="n">
-        <v>1872.202557977125</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q35" t="n">
-        <v>2048.878716272599</v>
+        <v>2048.8787162726</v>
       </c>
       <c r="R35" t="n">
         <v>2137.770914794524</v>
@@ -6973,16 +6973,16 @@
         <v>1879.576579873195</v>
       </c>
       <c r="V35" t="n">
-        <v>1719.042174295273</v>
+        <v>1522.087164999444</v>
       </c>
       <c r="W35" t="n">
-        <v>1719.042174295273</v>
+        <v>1125.695815299791</v>
       </c>
       <c r="X35" t="n">
-        <v>1719.042174295273</v>
+        <v>1125.695815299791</v>
       </c>
       <c r="Y35" t="n">
-        <v>1313.704904250163</v>
+        <v>1125.695815299791</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I36" t="n">
-        <v>62.98439029745214</v>
+        <v>86.44169614186401</v>
       </c>
       <c r="J36" t="n">
-        <v>142.0237151377161</v>
+        <v>299.0104088577481</v>
       </c>
       <c r="K36" t="n">
-        <v>289.8146695059643</v>
+        <v>446.8013632259964</v>
       </c>
       <c r="L36" t="n">
-        <v>496.065259128364</v>
+        <v>653.0519528483962</v>
       </c>
       <c r="M36" t="n">
-        <v>896.8821538038983</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N36" t="n">
-        <v>1149.507219438094</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O36" t="n">
-        <v>1376.999083460953</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P36" t="n">
         <v>1556.439737111774</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>864.8578491181245</v>
+        <v>917.9826253994637</v>
       </c>
       <c r="C37" t="n">
-        <v>692.8852859970405</v>
+        <v>917.9826253994637</v>
       </c>
       <c r="D37" t="n">
-        <v>618.8745345687356</v>
+        <v>754.6658525262344</v>
       </c>
       <c r="E37" t="n">
-        <v>452.6663287215891</v>
+        <v>588.4576466790879</v>
       </c>
       <c r="F37" t="n">
-        <v>280.8045544961495</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="G37" t="n">
-        <v>115.4479370999708</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="H37" t="n">
         <v>115.4479370999708</v>
@@ -7095,52 +7095,52 @@
         <v>42.75541829589048</v>
       </c>
       <c r="J37" t="n">
-        <v>162.6349221330689</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K37" t="n">
-        <v>244.402851647335</v>
+        <v>244.4028516473351</v>
       </c>
       <c r="L37" t="n">
-        <v>730.2862354305479</v>
+        <v>353.897341839383</v>
       </c>
       <c r="M37" t="n">
-        <v>859.6247907993799</v>
+        <v>882.9956432510278</v>
       </c>
       <c r="N37" t="n">
-        <v>1372.15296878278</v>
+        <v>1395.523821234428</v>
       </c>
       <c r="O37" t="n">
-        <v>1852.309315854113</v>
+        <v>1875.680168305762</v>
       </c>
       <c r="P37" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q37" t="n">
         <v>2137.770914794524</v>
       </c>
       <c r="R37" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S37" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="T37" t="n">
-        <v>1891.723027423367</v>
+        <v>1898.278526888668</v>
       </c>
       <c r="U37" t="n">
-        <v>1611.587689049648</v>
+        <v>1618.14318851495</v>
       </c>
       <c r="V37" t="n">
-        <v>1329.876221657677</v>
+        <v>1336.431721122979</v>
       </c>
       <c r="W37" t="n">
-        <v>1055.02381783019</v>
+        <v>1061.579317295492</v>
       </c>
       <c r="X37" t="n">
-        <v>1055.02381783019</v>
+        <v>917.9826253994637</v>
       </c>
       <c r="Y37" t="n">
-        <v>1055.02381783019</v>
+        <v>917.9826253994637</v>
       </c>
     </row>
     <row r="38">
@@ -7168,55 +7168,55 @@
         <v>320.0677541164978</v>
       </c>
       <c r="H38" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I38" t="n">
         <v>84.39494262103608</v>
       </c>
       <c r="J38" t="n">
-        <v>222.2360596072044</v>
+        <v>222.2360596072047</v>
       </c>
       <c r="K38" t="n">
-        <v>437.0691715610001</v>
+        <v>437.0691715610006</v>
       </c>
       <c r="L38" t="n">
-        <v>709.5851800848318</v>
+        <v>709.5851800848325</v>
       </c>
       <c r="M38" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N38" t="n">
-        <v>1332.07042163564</v>
+        <v>1332.070421635641</v>
       </c>
       <c r="O38" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P38" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q38" t="n">
-        <v>2048.878716272599</v>
+        <v>2048.8787162726</v>
       </c>
       <c r="R38" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S38" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T38" t="n">
-        <v>2137.770914794523</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="U38" t="n">
-        <v>2137.770914794523</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="V38" t="n">
-        <v>2137.770914794523</v>
+        <v>1570.816438124419</v>
       </c>
       <c r="W38" t="n">
-        <v>2137.770914794523</v>
+        <v>1570.816438124419</v>
       </c>
       <c r="X38" t="n">
-        <v>1726.05091596227</v>
+        <v>1570.816438124419</v>
       </c>
       <c r="Y38" t="n">
         <v>1570.816438124419</v>
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>598.4330068530408</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C39" t="n">
-        <v>480.9271033705455</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D39" t="n">
         <v>377.0871448858306</v>
@@ -7244,37 +7244,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G39" t="n">
-        <v>85.75954558772926</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H39" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I39" t="n">
-        <v>86.44169614186396</v>
+        <v>86.44169614186401</v>
       </c>
       <c r="J39" t="n">
-        <v>165.481020982128</v>
+        <v>299.0104088577481</v>
       </c>
       <c r="K39" t="n">
-        <v>313.2719753503761</v>
+        <v>446.8013632259964</v>
       </c>
       <c r="L39" t="n">
-        <v>519.5225649727759</v>
+        <v>653.0519528483962</v>
       </c>
       <c r="M39" t="n">
-        <v>763.3527659282772</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N39" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O39" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P39" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q39" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R39" t="n">
         <v>1815.649874842555</v>
@@ -7295,10 +7295,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X39" t="n">
-        <v>867.0529049198111</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y39" t="n">
-        <v>727.3600162731035</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>917.9826253994636</v>
+        <v>1017.262669716467</v>
       </c>
       <c r="C40" t="n">
-        <v>917.9826253994636</v>
+        <v>845.2901065953833</v>
       </c>
       <c r="D40" t="n">
-        <v>754.6658525262343</v>
+        <v>681.9733337221541</v>
       </c>
       <c r="E40" t="n">
-        <v>588.4576466790878</v>
+        <v>515.7651278750076</v>
       </c>
       <c r="F40" t="n">
-        <v>416.5958724536483</v>
+        <v>343.903353649568</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2392550574695</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="H40" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I40" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J40" t="n">
-        <v>84.71320548484806</v>
+        <v>84.71320548484809</v>
       </c>
       <c r="K40" t="n">
-        <v>166.4811349991141</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L40" t="n">
-        <v>567.1767050342058</v>
+        <v>275.9756251911622</v>
       </c>
       <c r="M40" t="n">
-        <v>1096.27500644585</v>
+        <v>805.0739266028069</v>
       </c>
       <c r="N40" t="n">
-        <v>1210.77026158737</v>
+        <v>1317.602104586207</v>
       </c>
       <c r="O40" t="n">
-        <v>1690.926608658704</v>
+        <v>1797.75845165754</v>
       </c>
       <c r="P40" t="n">
-        <v>2088.252358880158</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q40" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R40" t="n">
-        <v>2131.215415329221</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S40" t="n">
-        <v>2131.215415329221</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T40" t="n">
-        <v>2131.215415329221</v>
+        <v>1743.834164657643</v>
       </c>
       <c r="U40" t="n">
-        <v>1851.080076955503</v>
+        <v>1463.698826283925</v>
       </c>
       <c r="V40" t="n">
-        <v>1851.080076955503</v>
+        <v>1181.987358891953</v>
       </c>
       <c r="W40" t="n">
-        <v>1577.055258975982</v>
+        <v>1017.262669716467</v>
       </c>
       <c r="X40" t="n">
-        <v>1334.491362421787</v>
+        <v>1017.262669716467</v>
       </c>
       <c r="Y40" t="n">
-        <v>1108.148594111529</v>
+        <v>1017.262669716467</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>893.8565399586328</v>
+        <v>1247.573895224667</v>
       </c>
       <c r="C41" t="n">
-        <v>893.8565399586328</v>
+        <v>820.6731652379669</v>
       </c>
       <c r="D41" t="n">
-        <v>893.8565399586328</v>
+        <v>397.3805444229672</v>
       </c>
       <c r="E41" t="n">
-        <v>467.8796001064903</v>
+        <v>397.3805444229672</v>
       </c>
       <c r="F41" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G41" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H41" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I41" t="n">
-        <v>84.39494262103608</v>
+        <v>84.39494262103631</v>
       </c>
       <c r="J41" t="n">
-        <v>222.2360596072044</v>
+        <v>222.2360596072047</v>
       </c>
       <c r="K41" t="n">
-        <v>437.0691715610001</v>
+        <v>437.0691715610005</v>
       </c>
       <c r="L41" t="n">
-        <v>709.5851800848318</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M41" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N41" t="n">
-        <v>1332.07042163564</v>
+        <v>1332.070421635641</v>
       </c>
       <c r="O41" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P41" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q41" t="n">
-        <v>2048.878716272599</v>
+        <v>2048.8787162726</v>
       </c>
       <c r="R41" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S41" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T41" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U41" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="V41" t="n">
-        <v>1780.281499920772</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="W41" t="n">
-        <v>1383.890150221119</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="X41" t="n">
-        <v>1383.890150221119</v>
+        <v>1667.422259516197</v>
       </c>
       <c r="Y41" t="n">
-        <v>978.5528801760096</v>
+        <v>1667.422259516197</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>598.4330068530408</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C42" t="n">
-        <v>480.9271033705455</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D42" t="n">
         <v>377.0871448858306</v>
@@ -7481,31 +7481,31 @@
         <v>178.739380841672</v>
       </c>
       <c r="G42" t="n">
-        <v>85.75954558772926</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H42" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I42" t="n">
-        <v>62.98439029745212</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J42" t="n">
-        <v>142.0237151377161</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K42" t="n">
-        <v>289.8146695059643</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L42" t="n">
-        <v>653.051952848397</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M42" t="n">
-        <v>896.8821538038983</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N42" t="n">
-        <v>1149.507219438094</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O42" t="n">
-        <v>1376.999083460953</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P42" t="n">
         <v>1556.439737111774</v>
@@ -7532,10 +7532,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X42" t="n">
-        <v>867.0529049198111</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.3600162731035</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>845.2901065953832</v>
+        <v>1017.262669716467</v>
       </c>
       <c r="C43" t="n">
-        <v>845.2901065953832</v>
+        <v>845.2901065953833</v>
       </c>
       <c r="D43" t="n">
-        <v>681.9733337221539</v>
+        <v>681.9733337221541</v>
       </c>
       <c r="E43" t="n">
-        <v>515.7651278750075</v>
+        <v>515.7651278750076</v>
       </c>
       <c r="F43" t="n">
-        <v>343.9033536495679</v>
+        <v>343.903353649568</v>
       </c>
       <c r="G43" t="n">
         <v>178.5467362533892</v>
       </c>
       <c r="H43" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I43" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J43" t="n">
-        <v>84.71320548484803</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K43" t="n">
-        <v>413.7637441131362</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L43" t="n">
-        <v>899.647127896349</v>
+        <v>601.1799509534052</v>
       </c>
       <c r="M43" t="n">
-        <v>1015.623186533302</v>
+        <v>924.5709105292754</v>
       </c>
       <c r="N43" t="n">
-        <v>1130.118441674823</v>
+        <v>1437.099088512676</v>
       </c>
       <c r="O43" t="n">
-        <v>1610.274788746156</v>
+        <v>1539.553111280806</v>
       </c>
       <c r="P43" t="n">
-        <v>1936.878861502259</v>
+        <v>1936.87886150226</v>
       </c>
       <c r="Q43" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R43" t="n">
-        <v>2131.215415329221</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S43" t="n">
-        <v>1976.771053098196</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T43" t="n">
-        <v>1737.27866519234</v>
+        <v>1743.834164657643</v>
       </c>
       <c r="U43" t="n">
-        <v>1457.143326818622</v>
+        <v>1715.482874130762</v>
       </c>
       <c r="V43" t="n">
-        <v>1175.431859426651</v>
+        <v>1433.771406738791</v>
       </c>
       <c r="W43" t="n">
-        <v>1035.456075307449</v>
+        <v>1433.771406738791</v>
       </c>
       <c r="X43" t="n">
-        <v>1035.456075307449</v>
+        <v>1433.771406738791</v>
       </c>
       <c r="Y43" t="n">
-        <v>1035.456075307449</v>
+        <v>1207.428638428533</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>892.9487690975901</v>
+        <v>1455.283123511906</v>
       </c>
       <c r="C44" t="n">
-        <v>466.0480391108902</v>
+        <v>1028.382393525206</v>
       </c>
       <c r="D44" t="n">
-        <v>42.75541829589046</v>
+        <v>1028.382393525206</v>
       </c>
       <c r="E44" t="n">
-        <v>42.75541829589046</v>
+        <v>870.211481488812</v>
       </c>
       <c r="F44" t="n">
-        <v>42.75541829589046</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="G44" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H44" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I44" t="n">
-        <v>84.39494262103614</v>
+        <v>84.39494262103619</v>
       </c>
       <c r="J44" t="n">
-        <v>222.2360596072044</v>
+        <v>222.2360596072046</v>
       </c>
       <c r="K44" t="n">
-        <v>437.0691715610008</v>
+        <v>437.0691715610004</v>
       </c>
       <c r="L44" t="n">
-        <v>709.5851800848325</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M44" t="n">
         <v>1017.958031365649</v>
@@ -7663,37 +7663,37 @@
         <v>1332.070421635641</v>
       </c>
       <c r="O44" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P44" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q44" t="n">
-        <v>2048.878716272599</v>
+        <v>2048.8787162726</v>
       </c>
       <c r="R44" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S44" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T44" t="n">
-        <v>2137.770914794523</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="U44" t="n">
-        <v>2066.677897962524</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="V44" t="n">
-        <v>1709.188483088773</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="W44" t="n">
-        <v>1312.79713338912</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="X44" t="n">
-        <v>1312.79713338912</v>
+        <v>1455.283123511906</v>
       </c>
       <c r="Y44" t="n">
-        <v>1312.79713338912</v>
+        <v>1455.283123511906</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>598.4330068530408</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C45" t="n">
-        <v>480.9271033705455</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D45" t="n">
         <v>377.0871448858306</v>
@@ -7718,37 +7718,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G45" t="n">
-        <v>85.75954558772926</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H45" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I45" t="n">
-        <v>62.98439029745212</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J45" t="n">
-        <v>142.0237151377161</v>
+        <v>404.4659091426541</v>
       </c>
       <c r="K45" t="n">
-        <v>289.8146695059643</v>
+        <v>552.2568635109023</v>
       </c>
       <c r="L45" t="n">
-        <v>496.0652591283639</v>
+        <v>758.5074531333022</v>
       </c>
       <c r="M45" t="n">
-        <v>739.8954600838651</v>
+        <v>1002.337654088804</v>
       </c>
       <c r="N45" t="n">
-        <v>992.5205257180605</v>
+        <v>1254.962719722999</v>
       </c>
       <c r="O45" t="n">
-        <v>1220.012389740919</v>
+        <v>1482.454583745858</v>
       </c>
       <c r="P45" t="n">
-        <v>1399.453043391741</v>
+        <v>1661.89523739668</v>
       </c>
       <c r="Q45" t="n">
-        <v>1668.279192602594</v>
+        <v>1773.7346928875</v>
       </c>
       <c r="R45" t="n">
         <v>1815.649874842555</v>
@@ -7769,10 +7769,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X45" t="n">
-        <v>867.0529049198111</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y45" t="n">
-        <v>727.3600162731035</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>658.0155590449689</v>
+        <v>1089.955188520548</v>
       </c>
       <c r="C46" t="n">
-        <v>486.0429959238849</v>
+        <v>917.9826253994637</v>
       </c>
       <c r="D46" t="n">
-        <v>379.9738099175088</v>
+        <v>754.6658525262344</v>
       </c>
       <c r="E46" t="n">
-        <v>379.9738099175088</v>
+        <v>588.4576466790879</v>
       </c>
       <c r="F46" t="n">
-        <v>208.1120356920692</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="G46" t="n">
-        <v>42.75541829589046</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="H46" t="n">
-        <v>42.75541829589046</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I46" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J46" t="n">
-        <v>162.6349221330689</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K46" t="n">
-        <v>491.685460761357</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L46" t="n">
-        <v>601.179950953405</v>
+        <v>743.6487321624261</v>
       </c>
       <c r="M46" t="n">
-        <v>717.1560095903584</v>
+        <v>859.6247907993795</v>
       </c>
       <c r="N46" t="n">
-        <v>1059.396764209472</v>
+        <v>1372.15296878278</v>
       </c>
       <c r="O46" t="n">
-        <v>1539.553111280805</v>
+        <v>1852.309315854113</v>
       </c>
       <c r="P46" t="n">
-        <v>1936.878861502259</v>
+        <v>1936.87886150226</v>
       </c>
       <c r="Q46" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R46" t="n">
-        <v>2131.215415329221</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="S46" t="n">
         <v>1976.771053098196</v>
       </c>
       <c r="T46" t="n">
-        <v>1737.27866519234</v>
+        <v>1976.771053098196</v>
       </c>
       <c r="U46" t="n">
-        <v>1457.143326818622</v>
+        <v>1696.635714724478</v>
       </c>
       <c r="V46" t="n">
-        <v>1175.431859426651</v>
+        <v>1696.635714724478</v>
       </c>
       <c r="W46" t="n">
-        <v>900.5794555991638</v>
+        <v>1421.783310896991</v>
       </c>
       <c r="X46" t="n">
-        <v>658.0155590449689</v>
+        <v>1179.219414342797</v>
       </c>
       <c r="Y46" t="n">
-        <v>658.0155590449689</v>
+        <v>1179.219414342797</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>265.0931252575132</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>265.0931252575132</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8850,22 +8850,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>375.519187106203</v>
+        <v>417.2951947219103</v>
       </c>
       <c r="N13" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>381.5174992961649</v>
+        <v>295.4692025808916</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>265.0931252575132</v>
+        <v>134.8781695713337</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9090,19 +9090,19 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>380.1908016072373</v>
+        <v>208.0044056307795</v>
       </c>
       <c r="M16" t="n">
-        <v>331.2468980066362</v>
+        <v>417.2951947219103</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>134.8781695713334</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>265.0931252575135</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>288.2188056435729</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>417.29519472191</v>
       </c>
       <c r="N19" t="n">
-        <v>402.0534574160406</v>
+        <v>282.8953427940873</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>265.0931252575136</v>
+        <v>241.3988769298241</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>223.9433621911918</v>
+        <v>309.3842421978336</v>
       </c>
       <c r="N22" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>227.627186474397</v>
       </c>
       <c r="K23" t="n">
-        <v>461.3324725154308</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>475.6149430409061</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>265.0931252575137</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>265.0931252575131</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9795,13 +9795,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
-        <v>346.0072518373883</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
         <v>417.7126065281028</v>
@@ -9816,7 +9816,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>40.01016813891631</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>461.3324725154296</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>307.5560500126521</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>134.8781695713333</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>265.0931252575135</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>249.7804132464869</v>
@@ -10053,7 +10053,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>40.01016813891725</v>
+        <v>118.7189728340888</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>354.3083411156913</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10129,10 +10129,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>502.710210902391</v>
       </c>
       <c r="Q29" t="n">
-        <v>461.3324725154311</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>134.8781695713333</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>265.0931252575136</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
         <v>249.7804132464869</v>
@@ -10278,7 +10278,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>383.5290567582537</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
@@ -10287,7 +10287,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>203.0230036898344</v>
       </c>
       <c r="Q31" t="n">
         <v>152.9025226039384</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>200.5319186129138</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10366,10 +10366,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>502.7102109023911</v>
+        <v>206.4250513711265</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10424,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>134.8781695713333</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>158.5724178990231</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10515,10 +10515,10 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>417.7126065281028</v>
+        <v>304.8202520630808</v>
       </c>
       <c r="N34" t="n">
-        <v>289.161102951019</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
         <v>381.5174992961649</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>134.8781695713334</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>158.5724178990232</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10749,10 +10749,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>13.49747144634193</v>
+        <v>417.2951947219102</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
@@ -10761,10 +10761,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>129.2956009356068</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>134.8781695713334</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>241.398876929825</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10986,19 +10986,19 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>294.1425048919634</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>417.2951947219101</v>
+        <v>417.2951947219102</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>208.0044056307796</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11135,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>158.5724178990233</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11217,25 +11217,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>209.5100009484007</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>244.4793203110674</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
         <v>152.9025226039384</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>241.3988769298244</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.5724178990233</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11460,19 +11460,19 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>143.9078598070919</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>230.045959068276</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>152.9025226039384</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>368.5255052137728</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>25.86606685476517</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23418,19 +23418,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>40.97845946224385</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>87.17439999808336</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>284.1517297794064</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>341.4694854990487</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H14" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>95.79347155313991</v>
       </c>
       <c r="F16" t="n">
-        <v>49.51655568394305</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -23734,7 +23734,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -23743,10 +23743,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>24.90593640916745</v>
+        <v>122.4317965412096</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H17" t="n">
         <v>274.5392124624013</v>
@@ -23785,16 +23785,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>44.801133849957</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>91.83716405840005</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -23980,13 +23980,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>315.3737379865073</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>274.5392124624013</v>
+        <v>2.020679341696962</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.04236988161367</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T20" t="n">
-        <v>210.0177446442483</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U20" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>108.6775944482141</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.489944470648581</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S22" t="n">
-        <v>152.8999186087154</v>
+        <v>137.1421598129215</v>
       </c>
       <c r="T22" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24208,19 +24208,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>367.5696111041635</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>251.1878395825857</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.04236988161367</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>270.7068496593693</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.04236988161367</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>210.0177446442483</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U26" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>254.1527300315589</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24682,22 +24682,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>18.91894105670144</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>274.4658041750903</v>
       </c>
     </row>
     <row r="30">
@@ -24919,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>195.5123885792479</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.04236988161367</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>253.3695905271815</v>
       </c>
     </row>
     <row r="33">
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>190.453364252315</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.04236988161367</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T35" t="n">
-        <v>210.0177446442483</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>194.9854592028703</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>88.4129612304752</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S37" t="n">
         <v>152.8999186087154</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>97.9775326115851</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.04236988161367</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>316.3020949195873</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>247.601764285186</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S40" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.819309989486328</v>
+        <v>109.026437505481</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>331.8005038334117</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>69.79406512668783</v>
       </c>
       <c r="G41" t="n">
         <v>398.3085625684984</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.04236988161368</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>210.0177446442483</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U41" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>71.96559361603956</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>249.2662073683694</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.5278535112022</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>265.1279675375911</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>274.5392124624013</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.04236988161368</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>185.2303049084368</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>99.89272546091844</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>56.67511099818469</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>71.96559361603956</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,13 +26076,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>349550.561922409</v>
+        <v>349550.5619224089</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>349550.5619224089</v>
+        <v>349550.5619224088</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>349550.5619224089</v>
+        <v>349550.561922409</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>467690.4844732651</v>
+        <v>467690.4844732649</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>467690.4844732651</v>
+        <v>467690.484473265</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>467690.484473265</v>
+        <v>467690.4844732649</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>467690.4844732651</v>
+        <v>467690.4844732649</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>349550.5619224089</v>
+        <v>349550.561922409</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>349550.5619224089</v>
+        <v>349550.561922409</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>444661.8388447902</v>
       </c>
       <c r="C2" t="n">
-        <v>444661.8388447901</v>
+        <v>444661.8388447902</v>
       </c>
       <c r="D2" t="n">
         <v>444661.8388447902</v>
@@ -26325,7 +26325,7 @@
         <v>264418.6700701062</v>
       </c>
       <c r="F2" t="n">
-        <v>264418.670070106</v>
+        <v>264418.6700701062</v>
       </c>
       <c r="G2" t="n">
         <v>264418.6700701061</v>
@@ -26334,10 +26334,10 @@
         <v>264418.6700701062</v>
       </c>
       <c r="I2" t="n">
-        <v>331859.3702227616</v>
+        <v>331859.3702227614</v>
       </c>
       <c r="J2" t="n">
-        <v>331859.3702227614</v>
+        <v>331859.3702227612</v>
       </c>
       <c r="K2" t="n">
         <v>331859.3702227613</v>
@@ -26352,10 +26352,10 @@
         <v>264418.6700701062</v>
       </c>
       <c r="O2" t="n">
-        <v>264418.6700701061</v>
+        <v>264418.6700701062</v>
       </c>
       <c r="P2" t="n">
-        <v>264418.6700701061</v>
+        <v>264418.670070106</v>
       </c>
     </row>
     <row r="3">
@@ -26377,7 +26377,7 @@
         <v>556689.6559222536</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>8.522183634340765e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>57556.18318048181</v>
+        <v>57556.18318048175</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>79247.32527160783</v>
+        <v>79247.3252716077</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,37 +26429,37 @@
         <v>17337.56469062524</v>
       </c>
       <c r="F4" t="n">
-        <v>17337.56469062523</v>
+        <v>17337.56469062524</v>
       </c>
       <c r="G4" t="n">
-        <v>17337.56469062524</v>
+        <v>17337.56469062522</v>
       </c>
       <c r="H4" t="n">
         <v>17337.56469062524</v>
       </c>
       <c r="I4" t="n">
-        <v>50765.91611951139</v>
+        <v>50765.91611951133</v>
       </c>
       <c r="J4" t="n">
-        <v>50765.91611951139</v>
+        <v>50765.91611951133</v>
       </c>
       <c r="K4" t="n">
-        <v>50765.9161195114</v>
+        <v>50765.91611951134</v>
       </c>
       <c r="L4" t="n">
-        <v>50765.9161195114</v>
+        <v>50765.91611951134</v>
       </c>
       <c r="M4" t="n">
-        <v>17337.5646906253</v>
+        <v>17337.56469062523</v>
       </c>
       <c r="N4" t="n">
+        <v>17337.56469062523</v>
+      </c>
+      <c r="O4" t="n">
         <v>17337.56469062524</v>
       </c>
-      <c r="O4" t="n">
-        <v>17337.56469062525</v>
-      </c>
       <c r="P4" t="n">
-        <v>17337.56469062525</v>
+        <v>17337.56469062524</v>
       </c>
     </row>
     <row r="5">
@@ -26487,7 +26487,7 @@
         <v>43269.71441650124</v>
       </c>
       <c r="H5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650125</v>
       </c>
       <c r="I5" t="n">
         <v>56429.32173361156</v>
@@ -26502,16 +26502,16 @@
         <v>56429.32173361156</v>
       </c>
       <c r="M5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650125</v>
       </c>
       <c r="N5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650125</v>
       </c>
       <c r="O5" t="n">
-        <v>43269.71441650123</v>
+        <v>43269.71441650125</v>
       </c>
       <c r="P5" t="n">
-        <v>43269.71441650123</v>
+        <v>43269.71441650125</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>91240.48775939079</v>
+        <v>91218.77411789443</v>
       </c>
       <c r="C6" t="n">
-        <v>91240.48775939067</v>
+        <v>91218.77411789443</v>
       </c>
       <c r="D6" t="n">
-        <v>91240.48775939079</v>
+        <v>91218.77411789443</v>
       </c>
       <c r="E6" t="n">
-        <v>-352878.2649592739</v>
+        <v>-353481.4081774628</v>
       </c>
       <c r="F6" t="n">
-        <v>203811.3909629796</v>
+        <v>203208.2477447908</v>
       </c>
       <c r="G6" t="n">
-        <v>203811.3909629796</v>
+        <v>203208.2477447908</v>
       </c>
       <c r="H6" t="n">
-        <v>203811.3909629797</v>
+        <v>203208.2477447908</v>
       </c>
       <c r="I6" t="n">
-        <v>167107.9491891568</v>
+        <v>166722.3566166216</v>
       </c>
       <c r="J6" t="n">
-        <v>224664.1323696384</v>
+        <v>224278.5397971031</v>
       </c>
       <c r="K6" t="n">
-        <v>224664.1323696383</v>
+        <v>224278.5397971032</v>
       </c>
       <c r="L6" t="n">
-        <v>224664.1323696384</v>
+        <v>224278.5397971033</v>
       </c>
       <c r="M6" t="n">
-        <v>124564.0656913718</v>
+        <v>123960.9224731832</v>
       </c>
       <c r="N6" t="n">
-        <v>203811.3909629797</v>
+        <v>203208.2477447909</v>
       </c>
       <c r="O6" t="n">
-        <v>203811.3909629796</v>
+        <v>203208.2477447908</v>
       </c>
       <c r="P6" t="n">
-        <v>203811.3909629796</v>
+        <v>203208.2477447907</v>
       </c>
     </row>
   </sheetData>
@@ -26752,34 +26752,34 @@
         <v>494.2934179644261</v>
       </c>
       <c r="G3" t="n">
-        <v>494.2934179644259</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="H3" t="n">
-        <v>494.2934179644259</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="I3" t="n">
-        <v>494.2934179644259</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="J3" t="n">
-        <v>494.2934179644259</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="K3" t="n">
-        <v>494.2934179644259</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="L3" t="n">
-        <v>494.2934179644259</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="M3" t="n">
-        <v>494.2934179644259</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="N3" t="n">
-        <v>494.2934179644259</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="O3" t="n">
-        <v>494.2934179644259</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="P3" t="n">
-        <v>494.2934179644259</v>
+        <v>494.2934179644261</v>
       </c>
     </row>
     <row r="4">
@@ -26801,13 +26801,13 @@
         <v>534.442728698631</v>
       </c>
       <c r="F4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.442728698631</v>
       </c>
       <c r="G4" t="n">
         <v>534.4427286986307</v>
       </c>
       <c r="H4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.442728698631</v>
       </c>
       <c r="I4" t="n">
         <v>750.8836385195242</v>
@@ -26825,13 +26825,13 @@
         <v>534.442728698631</v>
       </c>
       <c r="N4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.442728698631</v>
       </c>
       <c r="O4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.442728698631</v>
       </c>
       <c r="P4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.442728698631</v>
       </c>
     </row>
   </sheetData>
@@ -26971,7 +26971,7 @@
         <v>494.2934179644261</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.078150109664906e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>216.4409098208935</v>
+        <v>216.4409098208932</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>318.001818877738</v>
+        <v>318.0018188777375</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.987109217947439</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H17" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I17" t="n">
-        <v>76.60802812491873</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J17" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K17" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L17" t="n">
-        <v>313.5807379112408</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M17" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N17" t="n">
-        <v>354.5648655314068</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O17" t="n">
-        <v>334.8055482454419</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P17" t="n">
-        <v>285.7487894273644</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q17" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R17" t="n">
         <v>124.822749411891</v>
       </c>
       <c r="S17" t="n">
-        <v>45.28125130397732</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T17" t="n">
-        <v>8.698570601564921</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H18" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I18" t="n">
-        <v>36.60569180208249</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J18" t="n">
         <v>100.4488161921859</v>
       </c>
       <c r="K18" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L18" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M18" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N18" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O18" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P18" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q18" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R18" t="n">
-        <v>66.01148702551336</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S18" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T18" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06994718178741879</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.891348786493227</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H19" t="n">
-        <v>7.924901029003424</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I19" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J19" t="n">
-        <v>63.01835920507115</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K19" t="n">
         <v>103.5585226489404</v>
@@ -32405,28 +32405,28 @@
         <v>139.7229738682065</v>
       </c>
       <c r="N19" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O19" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P19" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.63830611262831</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R19" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S19" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T19" t="n">
-        <v>3.808490269561969</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04861902471781244</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.987109217947439</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H20" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I20" t="n">
-        <v>76.60802812491873</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J20" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K20" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L20" t="n">
-        <v>313.5807379112408</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M20" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N20" t="n">
-        <v>354.5648655314068</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O20" t="n">
-        <v>334.8055482454419</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P20" t="n">
-        <v>285.7487894273644</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q20" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R20" t="n">
         <v>124.822749411891</v>
       </c>
       <c r="S20" t="n">
-        <v>45.28125130397732</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T20" t="n">
-        <v>8.698570601564921</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H21" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I21" t="n">
-        <v>36.60569180208249</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J21" t="n">
         <v>100.4488161921859</v>
       </c>
       <c r="K21" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L21" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M21" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N21" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O21" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P21" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q21" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R21" t="n">
-        <v>66.01148702551336</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S21" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T21" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06994718178741879</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.891348786493227</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H22" t="n">
-        <v>7.924901029003424</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I22" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J22" t="n">
-        <v>63.01835920507115</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K22" t="n">
         <v>103.5585226489404</v>
@@ -32642,28 +32642,28 @@
         <v>139.7229738682065</v>
       </c>
       <c r="N22" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O22" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P22" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.63830611262831</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R22" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S22" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T22" t="n">
-        <v>3.808490269561969</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04861902471781244</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.987109217947439</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H23" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I23" t="n">
-        <v>76.60802812491873</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J23" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K23" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L23" t="n">
-        <v>313.5807379112408</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M23" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N23" t="n">
-        <v>354.5648655314068</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O23" t="n">
-        <v>334.8055482454419</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P23" t="n">
-        <v>285.7487894273644</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q23" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R23" t="n">
         <v>124.822749411891</v>
       </c>
       <c r="S23" t="n">
-        <v>45.28125130397732</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T23" t="n">
-        <v>8.698570601564921</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H24" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I24" t="n">
-        <v>36.60569180208249</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J24" t="n">
         <v>100.4488161921859</v>
       </c>
       <c r="K24" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L24" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M24" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N24" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O24" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P24" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q24" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R24" t="n">
-        <v>66.01148702551336</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S24" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T24" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06994718178741879</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.891348786493227</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H25" t="n">
-        <v>7.924901029003424</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I25" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J25" t="n">
-        <v>63.01835920507115</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K25" t="n">
         <v>103.5585226489404</v>
@@ -32879,28 +32879,28 @@
         <v>139.7229738682065</v>
       </c>
       <c r="N25" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O25" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P25" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.63830611262831</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R25" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S25" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T25" t="n">
-        <v>3.808490269561969</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04861902471781244</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.987109217947439</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H26" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I26" t="n">
-        <v>76.60802812491873</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J26" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K26" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L26" t="n">
-        <v>313.5807379112408</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M26" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N26" t="n">
-        <v>354.5648655314068</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O26" t="n">
-        <v>334.8055482454419</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P26" t="n">
-        <v>285.7487894273644</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q26" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R26" t="n">
         <v>124.822749411891</v>
       </c>
       <c r="S26" t="n">
-        <v>45.28125130397732</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T26" t="n">
-        <v>8.698570601564921</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H27" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I27" t="n">
-        <v>36.60569180208249</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J27" t="n">
         <v>100.4488161921859</v>
       </c>
       <c r="K27" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L27" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M27" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N27" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O27" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P27" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q27" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R27" t="n">
-        <v>66.01148702551336</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S27" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T27" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06994718178741879</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.891348786493227</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H28" t="n">
-        <v>7.924901029003424</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I28" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J28" t="n">
-        <v>63.01835920507115</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K28" t="n">
         <v>103.5585226489404</v>
@@ -33116,28 +33116,28 @@
         <v>139.7229738682065</v>
       </c>
       <c r="N28" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O28" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P28" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.63830611262831</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R28" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S28" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T28" t="n">
-        <v>3.808490269561969</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04861902471781244</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.987109217947439</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H29" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I29" t="n">
-        <v>76.60802812491873</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J29" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K29" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L29" t="n">
-        <v>313.5807379112408</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M29" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N29" t="n">
-        <v>354.5648655314068</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O29" t="n">
-        <v>334.8055482454419</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P29" t="n">
-        <v>285.7487894273644</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q29" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R29" t="n">
         <v>124.822749411891</v>
       </c>
       <c r="S29" t="n">
-        <v>45.28125130397732</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T29" t="n">
-        <v>8.698570601564921</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H30" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I30" t="n">
-        <v>36.60569180208249</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J30" t="n">
         <v>100.4488161921859</v>
       </c>
       <c r="K30" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L30" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M30" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N30" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O30" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P30" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q30" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R30" t="n">
-        <v>66.01148702551336</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S30" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T30" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06994718178741879</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.891348786493227</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H31" t="n">
-        <v>7.924901029003424</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I31" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J31" t="n">
-        <v>63.01835920507115</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K31" t="n">
         <v>103.5585226489404</v>
@@ -33353,28 +33353,28 @@
         <v>139.7229738682065</v>
       </c>
       <c r="N31" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O31" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P31" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.63830611262831</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R31" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S31" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T31" t="n">
-        <v>3.808490269561969</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04861902471781244</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.987109217947439</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H32" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I32" t="n">
-        <v>76.60802812491873</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J32" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K32" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L32" t="n">
-        <v>313.5807379112408</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M32" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N32" t="n">
-        <v>354.5648655314068</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O32" t="n">
-        <v>334.8055482454419</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P32" t="n">
-        <v>285.7487894273644</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q32" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R32" t="n">
         <v>124.822749411891</v>
       </c>
       <c r="S32" t="n">
-        <v>45.28125130397732</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T32" t="n">
-        <v>8.698570601564921</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H33" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I33" t="n">
-        <v>36.60569180208249</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J33" t="n">
         <v>100.4488161921859</v>
       </c>
       <c r="K33" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L33" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M33" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N33" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O33" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P33" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q33" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R33" t="n">
-        <v>66.01148702551336</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S33" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T33" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06994718178741879</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.891348786493227</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H34" t="n">
-        <v>7.924901029003424</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I34" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J34" t="n">
-        <v>63.01835920507115</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K34" t="n">
         <v>103.5585226489404</v>
@@ -33590,28 +33590,28 @@
         <v>139.7229738682065</v>
       </c>
       <c r="N34" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O34" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P34" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.63830611262831</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R34" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S34" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T34" t="n">
-        <v>3.808490269561969</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04861902471781244</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.987109217947439</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H35" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I35" t="n">
-        <v>76.60802812491873</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J35" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K35" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L35" t="n">
-        <v>313.5807379112408</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M35" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N35" t="n">
-        <v>354.5648655314068</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O35" t="n">
-        <v>334.8055482454419</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P35" t="n">
-        <v>285.7487894273644</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q35" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R35" t="n">
         <v>124.822749411891</v>
       </c>
       <c r="S35" t="n">
-        <v>45.28125130397732</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T35" t="n">
-        <v>8.698570601564921</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H36" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I36" t="n">
-        <v>36.60569180208249</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J36" t="n">
         <v>100.4488161921859</v>
       </c>
       <c r="K36" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L36" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M36" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N36" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O36" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P36" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q36" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R36" t="n">
-        <v>66.01148702551336</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S36" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T36" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06994718178741879</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.891348786493227</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H37" t="n">
-        <v>7.924901029003424</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I37" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J37" t="n">
-        <v>63.01835920507115</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K37" t="n">
         <v>103.5585226489404</v>
@@ -33827,28 +33827,28 @@
         <v>139.7229738682065</v>
       </c>
       <c r="N37" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O37" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P37" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.63830611262831</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R37" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S37" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T37" t="n">
-        <v>3.808490269561969</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04861902471781244</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.987109217947439</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H38" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I38" t="n">
-        <v>76.60802812491873</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J38" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K38" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L38" t="n">
-        <v>313.5807379112408</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M38" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N38" t="n">
-        <v>354.5648655314068</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O38" t="n">
-        <v>334.8055482454419</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P38" t="n">
-        <v>285.7487894273644</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q38" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R38" t="n">
         <v>124.822749411891</v>
       </c>
       <c r="S38" t="n">
-        <v>45.28125130397732</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T38" t="n">
-        <v>8.698570601564921</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H39" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I39" t="n">
-        <v>36.60569180208249</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J39" t="n">
         <v>100.4488161921859</v>
       </c>
       <c r="K39" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L39" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M39" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N39" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O39" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P39" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q39" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R39" t="n">
-        <v>66.01148702551336</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S39" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T39" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06994718178741879</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.891348786493227</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H40" t="n">
-        <v>7.924901029003424</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I40" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J40" t="n">
-        <v>63.01835920507115</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K40" t="n">
         <v>103.5585226489404</v>
@@ -34064,28 +34064,28 @@
         <v>139.7229738682065</v>
       </c>
       <c r="N40" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O40" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P40" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.63830611262831</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R40" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S40" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T40" t="n">
-        <v>3.808490269561969</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04861902471781244</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.987109217947439</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H41" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I41" t="n">
-        <v>76.60802812491873</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J41" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K41" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L41" t="n">
-        <v>313.5807379112408</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M41" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N41" t="n">
-        <v>354.5648655314067</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O41" t="n">
-        <v>334.8055482454419</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P41" t="n">
-        <v>285.7487894273644</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q41" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R41" t="n">
-        <v>124.8227494118909</v>
+        <v>124.822749411891</v>
       </c>
       <c r="S41" t="n">
-        <v>45.28125130397731</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T41" t="n">
-        <v>8.698570601564919</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H42" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I42" t="n">
-        <v>36.60569180208249</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J42" t="n">
-        <v>100.4488161921858</v>
+        <v>100.4488161921859</v>
       </c>
       <c r="K42" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L42" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M42" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N42" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O42" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P42" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q42" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R42" t="n">
-        <v>66.01148702551336</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S42" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T42" t="n">
-        <v>4.285430670842521</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06994718178741879</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8913487864932269</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H43" t="n">
-        <v>7.924901029003423</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I43" t="n">
-        <v>26.80528896108723</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J43" t="n">
-        <v>63.01835920507114</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K43" t="n">
-        <v>103.5585226489403</v>
+        <v>103.5585226489404</v>
       </c>
       <c r="L43" t="n">
-        <v>132.5192550391839</v>
+        <v>132.519255039184</v>
       </c>
       <c r="M43" t="n">
         <v>139.7229738682065</v>
       </c>
       <c r="N43" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O43" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P43" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.6383061126283</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R43" t="n">
-        <v>40.07828270904999</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S43" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T43" t="n">
-        <v>3.808490269561969</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04861902471781243</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.987109217947439</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H44" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I44" t="n">
-        <v>76.60802812491873</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J44" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K44" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L44" t="n">
-        <v>313.5807379112408</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M44" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N44" t="n">
-        <v>354.5648655314067</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O44" t="n">
-        <v>334.8055482454419</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P44" t="n">
-        <v>285.7487894273644</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q44" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R44" t="n">
-        <v>124.8227494118909</v>
+        <v>124.822749411891</v>
       </c>
       <c r="S44" t="n">
-        <v>45.28125130397731</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T44" t="n">
-        <v>8.698570601564919</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H45" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I45" t="n">
-        <v>36.60569180208249</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J45" t="n">
-        <v>100.4488161921858</v>
+        <v>100.4488161921859</v>
       </c>
       <c r="K45" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L45" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M45" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N45" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O45" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P45" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q45" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R45" t="n">
-        <v>66.01148702551336</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S45" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T45" t="n">
-        <v>4.285430670842521</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06994718178741879</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8913487864932269</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H46" t="n">
-        <v>7.924901029003423</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I46" t="n">
-        <v>26.80528896108723</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J46" t="n">
-        <v>63.01835920507114</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K46" t="n">
-        <v>103.5585226489403</v>
+        <v>103.5585226489404</v>
       </c>
       <c r="L46" t="n">
-        <v>132.5192550391839</v>
+        <v>132.519255039184</v>
       </c>
       <c r="M46" t="n">
         <v>139.7229738682065</v>
       </c>
       <c r="N46" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O46" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P46" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.6383061126283</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R46" t="n">
-        <v>40.07828270904999</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S46" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T46" t="n">
-        <v>3.808490269561969</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04861902471781243</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>20.4333050520825</v>
       </c>
       <c r="J12" t="n">
-        <v>79.83770185885255</v>
+        <v>344.9308271163658</v>
       </c>
       <c r="K12" t="n">
         <v>149.2837922911598</v>
@@ -35497,7 +35497,7 @@
         <v>208.3339289115149</v>
       </c>
       <c r="M12" t="n">
-        <v>511.3862575357974</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N12" t="n">
         <v>255.1768339739348</v>
@@ -35570,22 +35570,22 @@
         <v>42.3816032211693</v>
       </c>
       <c r="K13" t="n">
-        <v>332.3742814427153</v>
+        <v>82.59386819622839</v>
       </c>
       <c r="L13" t="n">
-        <v>110.6004951434828</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M13" t="n">
-        <v>492.6667210829237</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N13" t="n">
-        <v>517.7052302862629</v>
+        <v>115.6517728702224</v>
       </c>
       <c r="O13" t="n">
-        <v>485.006411183165</v>
+        <v>398.9581144678917</v>
       </c>
       <c r="P13" t="n">
-        <v>85.42378348297615</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q13" t="n">
         <v>50.01874334784338</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J15" t="n">
-        <v>344.9308271163658</v>
+        <v>214.7158714301863</v>
       </c>
       <c r="K15" t="n">
         <v>149.2837922911598</v>
@@ -35749,7 +35749,7 @@
         <v>112.9691469604239</v>
       </c>
       <c r="R15" t="n">
-        <v>42.33856763136923</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35810,19 +35810,19 @@
         <v>82.59386819622839</v>
       </c>
       <c r="L16" t="n">
-        <v>490.7912967507201</v>
+        <v>318.6049007742623</v>
       </c>
       <c r="M16" t="n">
-        <v>448.3944319833569</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N16" t="n">
-        <v>115.6517728702224</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O16" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P16" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297615</v>
       </c>
       <c r="Q16" t="n">
         <v>50.01874334784338</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>42.06012558095523</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J17" t="n">
-        <v>139.2334515011801</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K17" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L17" t="n">
-        <v>275.2686954786179</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M17" t="n">
-        <v>311.4877285664817</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N17" t="n">
-        <v>317.2852426969608</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O17" t="n">
-        <v>297.4145888894178</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P17" t="n">
-        <v>248.1734276171331</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q17" t="n">
-        <v>178.4607659550236</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R17" t="n">
-        <v>89.79009951709449</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.43330505208249</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J18" t="n">
-        <v>79.83770185885253</v>
+        <v>214.715871430186</v>
       </c>
       <c r="K18" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L18" t="n">
-        <v>208.3339289115148</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M18" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N18" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O18" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P18" t="n">
-        <v>181.2531855058806</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q18" t="n">
-        <v>378.0622722179374</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R18" t="n">
-        <v>42.33856763136922</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.38160322116929</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K19" t="n">
         <v>332.3742814427153</v>
       </c>
       <c r="L19" t="n">
-        <v>398.8193007870557</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M19" t="n">
-        <v>117.1475339767207</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N19" t="n">
-        <v>517.7052302862629</v>
+        <v>398.5471156643097</v>
       </c>
       <c r="O19" t="n">
         <v>103.4889118870001</v>
       </c>
       <c r="P19" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297618</v>
       </c>
       <c r="Q19" t="n">
-        <v>202.9212659517818</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>42.06012558095523</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J20" t="n">
-        <v>139.2334515011801</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K20" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L20" t="n">
-        <v>275.2686954786179</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M20" t="n">
-        <v>311.4877285664817</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N20" t="n">
-        <v>317.2852426969608</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O20" t="n">
-        <v>297.4145888894178</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P20" t="n">
-        <v>248.1734276171331</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q20" t="n">
-        <v>178.4607659550236</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R20" t="n">
-        <v>89.79009951709449</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.43330505208249</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J21" t="n">
-        <v>344.9308271163661</v>
+        <v>321.2365787886767</v>
       </c>
       <c r="K21" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L21" t="n">
-        <v>208.3339289115148</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M21" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N21" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O21" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P21" t="n">
-        <v>181.2531855058806</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q21" t="n">
-        <v>112.9691469604239</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R21" t="n">
-        <v>42.33856763136922</v>
+        <v>42.33856763136924</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.38160322116929</v>
+        <v>42.38160322116931</v>
       </c>
       <c r="K22" t="n">
-        <v>332.3742814427153</v>
+        <v>82.5938681962284</v>
       </c>
       <c r="L22" t="n">
-        <v>490.7912967507201</v>
+        <v>110.6004951434828</v>
       </c>
       <c r="M22" t="n">
-        <v>341.0908961679125</v>
+        <v>426.5317761745544</v>
       </c>
       <c r="N22" t="n">
-        <v>517.7052302862629</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O22" t="n">
-        <v>103.4889118870001</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P22" t="n">
-        <v>85.42378348297613</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q22" t="n">
-        <v>202.9212659517818</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>42.06012558095523</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J23" t="n">
-        <v>534.9195310038328</v>
+        <v>366.8606379755772</v>
       </c>
       <c r="K23" t="n">
-        <v>678.3356159031033</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L23" t="n">
-        <v>275.2686954786179</v>
+        <v>750.8836385195242</v>
       </c>
       <c r="M23" t="n">
-        <v>311.4877285664817</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N23" t="n">
-        <v>317.2852426969608</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O23" t="n">
-        <v>297.4145888894178</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P23" t="n">
-        <v>248.1734276171331</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q23" t="n">
-        <v>178.4607659550236</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R23" t="n">
-        <v>89.79009951709449</v>
+        <v>243.5665220198734</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.43330505208249</v>
+        <v>20.43330505208251</v>
       </c>
       <c r="J24" t="n">
-        <v>79.83770185885253</v>
+        <v>79.83770185885257</v>
       </c>
       <c r="K24" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L24" t="n">
-        <v>208.3339289115148</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M24" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N24" t="n">
-        <v>520.2699592314484</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O24" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P24" t="n">
-        <v>181.2531855058806</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q24" t="n">
-        <v>112.9691469604239</v>
+        <v>378.062272217937</v>
       </c>
       <c r="R24" t="n">
-        <v>42.33856763136922</v>
+        <v>42.33856763136924</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.38160322116929</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K25" t="n">
         <v>332.3742814427153</v>
       </c>
       <c r="L25" t="n">
-        <v>456.607746980871</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M25" t="n">
-        <v>534.8601405048234</v>
+        <v>534.8601405048236</v>
       </c>
       <c r="N25" t="n">
-        <v>517.7052302862629</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O25" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P25" t="n">
-        <v>401.3391416378323</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q25" t="n">
-        <v>202.9212659517818</v>
+        <v>90.02891148675971</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.06012558095523</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J26" t="n">
         <v>534.9195310038328</v>
       </c>
       <c r="K26" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L26" t="n">
-        <v>275.2686954786179</v>
+        <v>736.6011679940476</v>
       </c>
       <c r="M26" t="n">
-        <v>311.4877285664817</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N26" t="n">
-        <v>317.2852426969608</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O26" t="n">
-        <v>297.4145888894178</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P26" t="n">
-        <v>555.7294776297853</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q26" t="n">
-        <v>178.4607659550236</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R26" t="n">
-        <v>243.5665220198734</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.43330505208249</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J27" t="n">
-        <v>79.83770185885253</v>
+        <v>214.7158714301859</v>
       </c>
       <c r="K27" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L27" t="n">
-        <v>208.3339289115148</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M27" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N27" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O27" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P27" t="n">
-        <v>181.2531855058806</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q27" t="n">
-        <v>378.0622722179374</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R27" t="n">
-        <v>42.33856763136922</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>121.0904079163419</v>
+        <v>42.38160322116931</v>
       </c>
       <c r="K28" t="n">
         <v>332.3742814427153</v>
       </c>
       <c r="L28" t="n">
-        <v>490.7912967507201</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M28" t="n">
-        <v>534.8601405048234</v>
+        <v>534.8601405048236</v>
       </c>
       <c r="N28" t="n">
-        <v>517.7052302862629</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O28" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P28" t="n">
-        <v>401.3391416378323</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q28" t="n">
-        <v>90.02891148676062</v>
+        <v>168.7377161819322</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>42.06012558095523</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J29" t="n">
-        <v>534.9195310038328</v>
+        <v>493.5417926168715</v>
       </c>
       <c r="K29" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L29" t="n">
-        <v>275.2686954786179</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M29" t="n">
-        <v>311.4877285664817</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N29" t="n">
-        <v>317.2852426969608</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O29" t="n">
-        <v>297.4145888894178</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P29" t="n">
-        <v>248.1734276171331</v>
+        <v>750.8836385195242</v>
       </c>
       <c r="Q29" t="n">
-        <v>639.7932384704548</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R29" t="n">
-        <v>89.79009951709449</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.43330505208249</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J30" t="n">
-        <v>79.83770185885253</v>
+        <v>214.7158714301859</v>
       </c>
       <c r="K30" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L30" t="n">
-        <v>208.3339289115148</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M30" t="n">
-        <v>511.3862575357978</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N30" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O30" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P30" t="n">
-        <v>181.2531855058806</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q30" t="n">
-        <v>112.9691469604239</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R30" t="n">
-        <v>42.33856763136922</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,25 +36989,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.38160322116929</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K31" t="n">
         <v>332.3742814427153</v>
       </c>
       <c r="L31" t="n">
-        <v>490.7912967507201</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M31" t="n">
-        <v>500.6765907349743</v>
+        <v>534.8601405048236</v>
       </c>
       <c r="N31" t="n">
-        <v>517.7052302862629</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O31" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P31" t="n">
-        <v>401.3391416378323</v>
+        <v>288.4467871728106</v>
       </c>
       <c r="Q31" t="n">
         <v>202.9212659517818</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>42.06012558095523</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J32" t="n">
-        <v>139.2334515011801</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K32" t="n">
-        <v>417.5350620005863</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L32" t="n">
-        <v>275.2686954786179</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M32" t="n">
-        <v>311.4877285664817</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N32" t="n">
-        <v>317.2852426969608</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O32" t="n">
-        <v>297.4145888894178</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P32" t="n">
-        <v>750.8836385195242</v>
+        <v>454.5984789882598</v>
       </c>
       <c r="Q32" t="n">
-        <v>178.4607659550236</v>
+        <v>675.2778440992007</v>
       </c>
       <c r="R32" t="n">
         <v>243.5665220198734</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.43330505208249</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J33" t="n">
-        <v>79.83770185885253</v>
+        <v>214.7158714301859</v>
       </c>
       <c r="K33" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L33" t="n">
-        <v>366.9063468105379</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M33" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N33" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O33" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P33" t="n">
-        <v>181.2531855058806</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q33" t="n">
-        <v>112.9691469604239</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R33" t="n">
-        <v>148.8592749898599</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37232,19 +37232,19 @@
         <v>332.3742814427153</v>
       </c>
       <c r="L34" t="n">
-        <v>490.7912967507201</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M34" t="n">
-        <v>534.8601405048234</v>
+        <v>421.9677860398015</v>
       </c>
       <c r="N34" t="n">
-        <v>404.8128758212413</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O34" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P34" t="n">
-        <v>401.3391416378323</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q34" t="n">
         <v>202.9212659517818</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>42.06012558095523</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J35" t="n">
-        <v>139.2334515011801</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K35" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L35" t="n">
-        <v>275.2686954786179</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M35" t="n">
-        <v>311.4877285664817</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N35" t="n">
-        <v>317.2852426969608</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O35" t="n">
-        <v>297.4145888894178</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P35" t="n">
-        <v>248.1734276171331</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q35" t="n">
-        <v>178.4607659550236</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R35" t="n">
-        <v>89.79009951709587</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.43330505208249</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J36" t="n">
-        <v>79.83770185885253</v>
+        <v>214.715871430186</v>
       </c>
       <c r="K36" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L36" t="n">
-        <v>208.3339289115148</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M36" t="n">
-        <v>404.8655501773073</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N36" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O36" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P36" t="n">
-        <v>181.2531855058806</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q36" t="n">
-        <v>112.9691469604239</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R36" t="n">
-        <v>148.8592749898599</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,25 +37466,25 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K37" t="n">
-        <v>82.59386819622836</v>
+        <v>82.5938681962284</v>
       </c>
       <c r="L37" t="n">
-        <v>490.7912967507201</v>
+        <v>110.6004951434828</v>
       </c>
       <c r="M37" t="n">
-        <v>130.6450054230626</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N37" t="n">
-        <v>517.7052302862629</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O37" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P37" t="n">
-        <v>85.42378348297613</v>
+        <v>214.719384418583</v>
       </c>
       <c r="Q37" t="n">
-        <v>202.9212659517818</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>42.06012558095523</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J38" t="n">
-        <v>139.2334515011801</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K38" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L38" t="n">
-        <v>275.2686954786179</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M38" t="n">
-        <v>311.4877285664817</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N38" t="n">
-        <v>317.2852426969608</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O38" t="n">
-        <v>297.4145888894178</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P38" t="n">
-        <v>248.1734276171331</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q38" t="n">
-        <v>178.4607659550236</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R38" t="n">
-        <v>89.79009951709449</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>44.12755337977121</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J39" t="n">
-        <v>79.83770185885253</v>
+        <v>214.715871430186</v>
       </c>
       <c r="K39" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L39" t="n">
-        <v>208.3339289115148</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M39" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N39" t="n">
-        <v>496.5757109037597</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O39" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P39" t="n">
-        <v>181.2531855058806</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q39" t="n">
-        <v>112.9691469604239</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R39" t="n">
-        <v>42.33856763136922</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>42.38160322116929</v>
+        <v>42.38160322116931</v>
       </c>
       <c r="K40" t="n">
-        <v>82.59386819622836</v>
+        <v>82.5938681962284</v>
       </c>
       <c r="L40" t="n">
-        <v>404.7430000354461</v>
+        <v>110.6004951434828</v>
       </c>
       <c r="M40" t="n">
-        <v>534.4427286986307</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N40" t="n">
-        <v>115.6517728702223</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O40" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P40" t="n">
-        <v>401.3391416378323</v>
+        <v>293.4281891137558</v>
       </c>
       <c r="Q40" t="n">
-        <v>50.01874334784337</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>42.06012558095523</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J41" t="n">
-        <v>139.2334515011801</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K41" t="n">
-        <v>217.0031433876724</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L41" t="n">
-        <v>275.2686954786178</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M41" t="n">
-        <v>311.4877285664817</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N41" t="n">
-        <v>317.2852426969607</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O41" t="n">
-        <v>297.4145888894178</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P41" t="n">
-        <v>248.1734276171331</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q41" t="n">
-        <v>178.4607659550236</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R41" t="n">
-        <v>89.79009951709446</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.43330505208249</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J42" t="n">
-        <v>79.83770185885251</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K42" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L42" t="n">
-        <v>366.9063468105381</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M42" t="n">
-        <v>246.2931322782841</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N42" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O42" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P42" t="n">
-        <v>181.2531855058806</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q42" t="n">
-        <v>112.9691469604239</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R42" t="n">
-        <v>148.8592749898599</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.38160322116927</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K43" t="n">
         <v>332.3742814427153</v>
       </c>
       <c r="L43" t="n">
-        <v>490.7912967507201</v>
+        <v>110.6004951434828</v>
       </c>
       <c r="M43" t="n">
-        <v>117.1475339767206</v>
+        <v>326.6575349251214</v>
       </c>
       <c r="N43" t="n">
-        <v>115.6517728702223</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O43" t="n">
-        <v>485.006411183165</v>
+        <v>103.4889118870001</v>
       </c>
       <c r="P43" t="n">
-        <v>329.9031037940435</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q43" t="n">
         <v>202.9212659517818</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>42.06012558095523</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J44" t="n">
-        <v>139.2334515011801</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K44" t="n">
-        <v>217.0031433876731</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L44" t="n">
-        <v>275.2686954786178</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M44" t="n">
-        <v>311.4877285664817</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N44" t="n">
-        <v>317.2852426969607</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O44" t="n">
-        <v>297.4145888894178</v>
+        <v>297.4145888894187</v>
       </c>
       <c r="P44" t="n">
-        <v>248.1734276171331</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q44" t="n">
-        <v>178.4607659550236</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R44" t="n">
-        <v>89.79009951709446</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.43330505208249</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J45" t="n">
-        <v>79.83770185885251</v>
+        <v>321.2365787886769</v>
       </c>
       <c r="K45" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L45" t="n">
-        <v>208.3339289115148</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M45" t="n">
-        <v>246.2931322782841</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N45" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O45" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P45" t="n">
-        <v>181.2531855058806</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q45" t="n">
-        <v>271.5415648594472</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R45" t="n">
-        <v>148.8592749898599</v>
+        <v>42.33856763136924</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38180,19 +38180,19 @@
         <v>332.3742814427153</v>
       </c>
       <c r="L46" t="n">
-        <v>110.6004951434827</v>
+        <v>254.5083549505747</v>
       </c>
       <c r="M46" t="n">
-        <v>117.1475339767206</v>
+        <v>117.1475339767207</v>
       </c>
       <c r="N46" t="n">
-        <v>345.6977319384983</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O46" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P46" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297616</v>
       </c>
       <c r="Q46" t="n">
         <v>202.9212659517818</v>
